--- a/xlsx/美国卫生保健_intext.xlsx
+++ b/xlsx/美国卫生保健_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>美国卫生保健</t>
   </si>
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国卫生保健</t>
+    <t>洛杉矶</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国卫生保健</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>醫療保險</t>
+    <t>医疗保险</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Private_sector</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%8C%BB%E7%96%97%E4%BF%9D%E9%99%A9</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E7%A0%94%E7%A9%B6</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commonwealth_Fund</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Medical_debt</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國家科學院</t>
+    <t>美国国家科学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Institute_of_Medicine</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國防部</t>
+    <t>美国国防部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Military_Health_System</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA</t>
   </si>
   <si>
-    <t>退伍軍人</t>
+    <t>退伍军人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indian_Health_Service</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A5%E8%A8%BA</t>
   </si>
   <si>
-    <t>急診</t>
+    <t>急诊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E8%AF%8A</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%84%E7%B5%82%E6%94%B6%E5%AE%B9%E6%89%80</t>
   </si>
   <si>
-    <t>善終收容所</t>
+    <t>善终收容所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E7%B5%82%E9%97%9C%E6%87%B7</t>
   </si>
   <si>
-    <t>臨終關懷</t>
+    <t>临终关怀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%88%90%E5%91%98%E5%9B%BD</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>東帝汶</t>
+    <t>东帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>內科</t>
+    <t>内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>診斷</t>
+    <t>诊断</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Centers_for_Medicare_and_Medicaid_Services</t>
@@ -299,9 +299,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%9B%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國衛生及公共服務部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8F%B2%E7%89%B9</t>
   </si>
   <si>
@@ -311,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%9B%E8%9F%B2</t>
   </si>
   <si>
-    <t>絛蟲</t>
+    <t>绦虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/European_Federation_of_Pharmaceutical_Industries_and_Associations</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞廣播公司</t>
+    <t>哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Journal_of_Public_Health</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華盛頓郵報</t>
+    <t>华盛顿邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E7%BA%AA%E4%BA%8B%E6%8A%A5</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>美國經濟</t>
+    <t>美国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國社會問題</t>
+    <t>美国社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
@@ -2199,7 +2196,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2225,10 +2222,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2254,10 +2251,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2283,10 +2280,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2312,10 +2309,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2341,10 +2338,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2370,10 +2367,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2399,10 +2396,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2428,10 +2425,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2457,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2486,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2515,10 +2512,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2544,10 +2541,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2573,10 +2570,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2602,10 +2599,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2631,10 +2628,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2660,10 +2657,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2689,10 +2686,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2718,10 +2715,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2747,10 +2744,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2776,10 +2773,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2805,10 +2802,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2834,10 +2831,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2863,10 +2860,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2892,10 +2889,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2921,10 +2918,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2950,10 +2947,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2979,10 +2976,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3008,10 +3005,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3037,10 +3034,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3066,10 +3063,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3095,10 +3092,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3124,10 +3121,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3153,10 +3150,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
